--- a/gap_result_0_Black.xlsx
+++ b/gap_result_0_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.002724682911914904</v>
+        <v>-0.01640212458667932</v>
       </c>
       <c r="D2">
-        <v>0.7558697855695423</v>
+        <v>0.05638393314909049</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.00198862477992213</v>
+        <v>-0.01030022742855865</v>
       </c>
       <c r="D3">
-        <v>0.9388351549146949</v>
+        <v>0.6850594934918897</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.000483851116077294</v>
+        <v>-0.0001404332508844197</v>
       </c>
       <c r="D4">
-        <v>0.9760149303948211</v>
+        <v>0.9928893217850826</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.02975734701060837</v>
+        <v>-0.0004647193997024505</v>
       </c>
       <c r="D5">
-        <v>0.05666751663709108</v>
+        <v>0.9758282423538454</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.009604929541067548</v>
+        <v>0.0005806818024680967</v>
       </c>
       <c r="D6">
-        <v>0.4627491304695137</v>
+        <v>0.9638478679986466</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gap_result_0_Black.xlsx
+++ b/gap_result_0_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.01640212458667932</v>
+        <v>-0.01619460327116728</v>
       </c>
       <c r="D2">
-        <v>0.05638393314909049</v>
+        <v>0.05468880291981215</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.01030022742855865</v>
+        <v>-0.008652139992702534</v>
       </c>
       <c r="D3">
-        <v>0.6850594934918897</v>
+        <v>0.7097828906906865</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.0001404332508844197</v>
+        <v>0.0004391191829484255</v>
       </c>
       <c r="D4">
-        <v>0.9928893217850826</v>
+        <v>0.9770871851179619</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0004647193997024505</v>
+        <v>-0.0002759556111056466</v>
       </c>
       <c r="D5">
-        <v>0.9758282423538454</v>
+        <v>0.9851070888502471</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0005806818024680967</v>
+        <v>0.005592640288787823</v>
       </c>
       <c r="D6">
-        <v>0.9638478679986466</v>
+        <v>0.6479115502585659</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_Black.xlsx
+++ b/gap_result_0_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.01619460327116728</v>
+        <v>-0.01639531512594071</v>
       </c>
       <c r="D2">
-        <v>0.05468880291981215</v>
+        <v>0.05644323223405597</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.008652139992702534</v>
+        <v>-0.0101104115487714</v>
       </c>
       <c r="D3">
-        <v>0.7097828906906865</v>
+        <v>0.6905086509152641</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.0004391191829484255</v>
+        <v>-2.966774739160405E-05</v>
       </c>
       <c r="D4">
-        <v>0.9770871851179619</v>
+        <v>0.9984975263404627</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0002759556111056466</v>
+        <v>-0.0003837154661750324</v>
       </c>
       <c r="D5">
-        <v>0.9851070888502471</v>
+        <v>0.9800371007698104</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.005592640288787823</v>
+        <v>0.0005751981440650974</v>
       </c>
       <c r="D6">
-        <v>0.6479115502585659</v>
+        <v>0.9641827994291328</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_Black.xlsx
+++ b/gap_result_0_Black.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.01639531512594071</v>
+        <v>-0.01683702131271568</v>
       </c>
       <c r="D2">
-        <v>0.05644323223405597</v>
+        <v>0.05041975617841748</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0101104115487714</v>
+        <v>-0.01053534809564807</v>
       </c>
       <c r="D3">
-        <v>0.6905086509152641</v>
+        <v>0.6786042756987862</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-2.966774739160405E-05</v>
+        <v>-0.0003529235744709758</v>
       </c>
       <c r="D4">
-        <v>0.9984975263404627</v>
+        <v>0.9821510676633413</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0003837154661750324</v>
+        <v>-0.0006257150069226107</v>
       </c>
       <c r="D5">
-        <v>0.9800371007698104</v>
+        <v>0.9674941749377839</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0005751981440650974</v>
+        <v>0.0005485381072830361</v>
       </c>
       <c r="D6">
-        <v>0.9641827994291328</v>
+        <v>0.9658854338653952</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/gap_result_0_Black.xlsx
+++ b/gap_result_0_Black.xlsx
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
